--- a/biology/Botanique/Ticorea_foetida/Ticorea_foetida.xlsx
+++ b/biology/Botanique/Ticorea_foetida/Ticorea_foetida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ticorea foetida est une espèce de plantes à fleurs de la famille des Rutaceae (familles des agrumes). C'est un arbuste, endémique, peu commun, du plateau des Guyanes. Il s'agit de l'espèce type du genre Ticorea Aubl..
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ticorea foetida est un arbuste ou un petit arbre, haut de 1,5 à 14 m pour 2 à 6 cm de dhp.
 Les feuilles trifoliolées, ont un très long pétiole (4,5 à 18,5 cm).
@@ -526,7 +540,7 @@
 L'androcée comprend 5 étamines fertiles, dotées de filets longs de 13-17 mm, libres les uns des autres et adhérents au tube de la corolle, essentiellement glabres adaxialement, la partie libre étant longue de 3,5-6 mm.
 Les anthères elliptiques, stériles à la base au-dessus du point d'attache du filet, sont longues de (4)4,6 à 5,3(6,7) mm (4 à 5,3 x 0,5 à 1,5 mm pour la partie fertile et 0,25 à 1 mm pour la partie basale stérile), avec des appendices bifides basaux longs de (0,5)0,6 à 0,8(1,2) mm et l'encoche est profonde de 0,15 à 0,65 mm.
 Le disque, haut de 1 à 1,4 mm, est de même taille ou légèrement plus court que l'ovaire. Les carpelles, hauts d'environ 1,5 mm, sont glabres mais deviennent plus ou moins pubescents après l'anthèse. Le style est long de 18-20 mm.
-Le fruit capsulaire à 5 loges, se compose de méricarpes, mesurant 10-14(17) x 7-10(12) mm, et portant une pubescence courte, légèrement strigilleuse et glabrescente, à l'exception des faces latérales adjacentes. La graine mesure 9-10,2 x 6,7-7 mm[1],[2],[3].
+Le fruit capsulaire à 5 loges, se compose de méricarpes, mesurant 10-14(17) x 7-10(12) mm, et portant une pubescence courte, légèrement strigilleuse et glabrescente, à l'exception des faces latérales adjacentes. La graine mesure 9-10,2 x 6,7-7 mm.
 </t>
         </is>
       </c>
@@ -555,9 +569,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ticorea foetida est présent au Guyana, au Suriname, en Guyane, et dans l'Amapá[2]. il est localement commun à Saül[1] et en montagne de Kaw[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ticorea foetida est présent au Guyana, au Suriname, en Guyane, et dans l'Amapá. il est localement commun à Saül et en montagne de Kaw.
 </t>
         </is>
       </c>
@@ -586,11 +602,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ticorea foetida pousse dans le sous-bois et le sous-étage des forêts humides de terre ferme, et rarement en forêt secondaire, à des altitudes jusqu'à 470 m. Il fleurit en août et de décembre à mars (janvier, février, mars, juillet en Guyane), pour fructifier de mars à décembre (mars, mai, juin, juillet, octobre en Guyane)[2],[1].
-Ticorea foetida est la plante hôte du papillon Heraclides garleppi lecerfi (Papilioninae)[4].
-Les feuilles froissées dégagent une odeur désagréable, rappelant celle de Datura stramonium[5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ticorea foetida pousse dans le sous-bois et le sous-étage des forêts humides de terre ferme, et rarement en forêt secondaire, à des altitudes jusqu'à 470 m. Il fleurit en août et de décembre à mars (janvier, février, mars, juillet en Guyane), pour fructifier de mars à décembre (mars, mai, juin, juillet, octobre en Guyane),.
+Ticorea foetida est la plante hôte du papillon Heraclides garleppi lecerfi (Papilioninae).
+Les feuilles froissées dégagent une odeur désagréable, rappelant celle de Datura stramonium
 </t>
         </is>
       </c>
@@ -619,7 +637,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">-
 </t>
@@ -650,9 +670,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « TICOREA fœtida. (Tabula 277.)
 Frutex caulem decempedalem e radice emittens. Folia alterna, longe petiolata, trifoliata, foliolis amplis, ovatis, acutis, glabris, integerrimis, intermedio latiore &amp; longiore. Flores corymboſi, terminales, pedunculo communi longiſſimo. Corolla alba. 
 Tota planta odorem foetidum ſtramonii exhalat. 
